--- a/TestFiles/sample1/words/word_18.xlsx
+++ b/TestFiles/sample1/words/word_18.xlsx
@@ -391,10 +391,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.4001520499999955</v>
+        <v>0.4001520500000026</v>
       </c>
       <c r="B2">
-        <v>0.5602366499999931</v>
+        <v>0.5602366500000002</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -402,10 +402,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.6715642499999959</v>
+        <v>0.671564250000003</v>
       </c>
       <c r="B3">
-        <v>0.7760567499999951</v>
+        <v>0.7760567500000022</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -413,10 +413,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.8799985499999963</v>
+        <v>0.8799985500000034</v>
       </c>
       <c r="B4">
-        <v>0.9999872499999967</v>
+        <v>0.9999872500000038</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -424,10 +424,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1.400589049999994</v>
+        <v>1.400589050000001</v>
       </c>
       <c r="B5">
-        <v>1.496064549999993</v>
+        <v>1.49606455</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -435,10 +435,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1.552331149999993</v>
+        <v>1.552331150000001</v>
       </c>
       <c r="B6">
-        <v>1.673518349999995</v>
+        <v>1.673518350000002</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -446,10 +446,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1.752076649999992</v>
+        <v>1.752076649999999</v>
       </c>
       <c r="B7">
-        <v>1.848898549999994</v>
+        <v>1.848898550000001</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
